--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/86.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/86.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1069006137493905</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.58831217998969</v>
+        <v>-2.605598551810083</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1557582258672892</v>
+        <v>-0.1904364857851535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1699552734537692</v>
+        <v>0.1427009680132822</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08787550489597878</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.713383123884323</v>
+        <v>-2.724044537313879</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2449359478559762</v>
+        <v>-0.2851998613314993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1981098218131363</v>
+        <v>0.1733299645582162</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06049894628873308</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.934303712050591</v>
+        <v>-2.926761432961924</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3584074203202152</v>
+        <v>-0.3970660225745373</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1946979255474077</v>
+        <v>0.1739069495184199</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.02743371291226901</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.100026478971159</v>
+        <v>-3.07867498584024</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4267478123084816</v>
+        <v>-0.4673587706490743</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2500958007750803</v>
+        <v>0.2296500398491319</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.008747121601233591</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.286052285379317</v>
+        <v>-3.252460599147079</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.46972465295418</v>
+        <v>-0.5038442255321431</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2422272141243536</v>
+        <v>0.2270871531654365</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.04530309798825084</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.07615052415918</v>
+        <v>-3.030077116237631</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.51118950024222</v>
+        <v>-0.549359556034467</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2477878609342656</v>
+        <v>0.2364128403129143</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.08074174679190457</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.75140130942806</v>
+        <v>-2.71378140208624</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5249511404716865</v>
+        <v>-0.5713057218252156</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2613811630569496</v>
+        <v>0.2517114806477859</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1148925859583497</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.319239574235517</v>
+        <v>-2.286611257712202</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5620452961901498</v>
+        <v>-0.6138672064900486</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2501342257777154</v>
+        <v>0.2459556592213145</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1490393835464943</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.916025284282113</v>
+        <v>-1.878965284121547</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.647782455641301</v>
+        <v>-0.6901707228339375</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2840134896090398</v>
+        <v>0.2865349016867162</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1856506346247051</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.349247956524505</v>
+        <v>-1.314702659314172</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7980541020578108</v>
+        <v>-0.8310062864604781</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3119777427172615</v>
+        <v>0.3158525687766419</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2278474236970268</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8333624100347559</v>
+        <v>-0.7802541770275955</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.070259870328439</v>
+        <v>-1.100555850183868</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3433886575697865</v>
+        <v>0.3498452778538414</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2767782876942122</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2063060118734613</v>
+        <v>-0.1731190080102459</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.448950469711157</v>
+        <v>-1.467068773334635</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4188517032211167</v>
+        <v>0.4140882227357143</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3338272558409808</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4432497501323925</v>
+        <v>0.4920177876038137</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.806407900574245</v>
+        <v>-1.812978576024851</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5248113926305266</v>
+        <v>0.5264392709167671</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4008903784026867</v>
       </c>
       <c r="E15" t="n">
-        <v>1.017297942277513</v>
+        <v>1.073940665606429</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.169907205661199</v>
+        <v>-2.165466373213796</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6184598331797768</v>
+        <v>0.6184799605621095</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4773633904252904</v>
       </c>
       <c r="E16" t="n">
-        <v>1.616810322676866</v>
+        <v>1.679770604375538</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.600023876824606</v>
+        <v>-2.56763220952387</v>
       </c>
       <c r="G16" t="n">
-        <v>0.731780655236859</v>
+        <v>0.7225263288085607</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.562837494178786</v>
       </c>
       <c r="E17" t="n">
-        <v>2.143198703220217</v>
+        <v>2.208090603702149</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.885463094018637</v>
+        <v>-2.825187073218333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8693452142739998</v>
+        <v>0.8491623291597298</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6582231906891525</v>
       </c>
       <c r="E18" t="n">
-        <v>2.575934983690257</v>
+        <v>2.641718588201595</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.155435332771013</v>
+        <v>-3.074599190917871</v>
       </c>
       <c r="G18" t="n">
-        <v>1.007219613014928</v>
+        <v>0.9868116671709385</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7633976754680878</v>
       </c>
       <c r="E19" t="n">
-        <v>2.924551004423205</v>
+        <v>2.994268597299568</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.39669647054649</v>
+        <v>-3.28630479253949</v>
       </c>
       <c r="G19" t="n">
-        <v>1.112671848421284</v>
+        <v>1.092951893100666</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8796152454125968</v>
       </c>
       <c r="E20" t="n">
-        <v>3.290721762074315</v>
+        <v>3.37046767071777</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.642777811430307</v>
+        <v>-3.519496984721929</v>
       </c>
       <c r="G20" t="n">
-        <v>1.21413093315697</v>
+        <v>1.195477119179307</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.004722090777873</v>
       </c>
       <c r="E21" t="n">
-        <v>3.604308818500269</v>
+        <v>3.679368096663592</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.796407071172315</v>
+        <v>-3.673927680233184</v>
       </c>
       <c r="G21" t="n">
-        <v>1.367577216695953</v>
+        <v>1.353037927603633</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.132353294473813</v>
       </c>
       <c r="E22" t="n">
-        <v>3.819032612590776</v>
+        <v>3.898679714084598</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.95860053209688</v>
+        <v>-3.825299623550547</v>
       </c>
       <c r="G22" t="n">
-        <v>1.45493005601981</v>
+        <v>1.43672209405685</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.256668682960039</v>
       </c>
       <c r="E23" t="n">
-        <v>4.031899808141262</v>
+        <v>4.115946877397144</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.103034627716235</v>
+        <v>-3.977402251838654</v>
       </c>
       <c r="G23" t="n">
-        <v>1.552687532168312</v>
+        <v>1.535285275419337</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.37087874616232</v>
       </c>
       <c r="E24" t="n">
-        <v>4.164008626724891</v>
+        <v>4.244231493337564</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.214766606410388</v>
+        <v>-4.097613652741297</v>
       </c>
       <c r="G24" t="n">
-        <v>1.610117053170232</v>
+        <v>1.602655283610897</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.467810119048876</v>
       </c>
       <c r="E25" t="n">
-        <v>4.274333518417787</v>
+        <v>4.355015045379374</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.180396356434281</v>
+        <v>-4.076136820911307</v>
       </c>
       <c r="G25" t="n">
-        <v>1.60605315170106</v>
+        <v>1.61177542749031</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.543681399671899</v>
       </c>
       <c r="E26" t="n">
-        <v>4.270680093564066</v>
+        <v>4.34819247268927</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.049609540917504</v>
+        <v>-3.969678216388317</v>
       </c>
       <c r="G26" t="n">
-        <v>1.562628019357952</v>
+        <v>1.579527701469287</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.595046525682861</v>
       </c>
       <c r="E27" t="n">
-        <v>4.380403603469689</v>
+        <v>4.461179058215494</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.960597107432215</v>
+        <v>-3.89808938687569</v>
       </c>
       <c r="G27" t="n">
-        <v>1.485954891083954</v>
+        <v>1.501893948129411</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.620156343964259</v>
       </c>
       <c r="E28" t="n">
-        <v>4.305810304703401</v>
+        <v>4.37407140700369</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.808838779366132</v>
+        <v>-3.765413342062685</v>
       </c>
       <c r="G28" t="n">
-        <v>1.425095176196002</v>
+        <v>1.449491393345248</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.619630173531745</v>
       </c>
       <c r="E29" t="n">
-        <v>4.232264849659767</v>
+        <v>4.287140632788143</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.739769227208813</v>
+        <v>-3.710011502350614</v>
       </c>
       <c r="G29" t="n">
-        <v>1.343227963438817</v>
+        <v>1.382920381240228</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.593730676202575</v>
       </c>
       <c r="E30" t="n">
-        <v>4.068133975705511</v>
+        <v>4.114846580496291</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.594454101171896</v>
+        <v>-3.564844891998485</v>
       </c>
       <c r="G30" t="n">
-        <v>1.258559994934005</v>
+        <v>1.303799031369762</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.545125467971691</v>
       </c>
       <c r="E31" t="n">
-        <v>3.834228176331277</v>
+        <v>3.867754296090764</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.472931675774583</v>
+        <v>-3.461174539849249</v>
       </c>
       <c r="G31" t="n">
-        <v>1.163968007097826</v>
+        <v>1.219196324377362</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.477822724034679</v>
       </c>
       <c r="E32" t="n">
-        <v>3.62033143467844</v>
+        <v>3.639026723262122</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.361183839142834</v>
+        <v>-3.36505958008323</v>
       </c>
       <c r="G32" t="n">
-        <v>1.09567823852573</v>
+        <v>1.158307943217604</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.395294464444391</v>
       </c>
       <c r="E33" t="n">
-        <v>3.427928297674205</v>
+        <v>3.426846298393654</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.225222456604526</v>
+        <v>-3.239827922090273</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9917928893379399</v>
+        <v>1.046005688690691</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.302806684970148</v>
       </c>
       <c r="E34" t="n">
-        <v>3.147346488749796</v>
+        <v>3.135945851460021</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.035669478922734</v>
+        <v>-3.048950196698585</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9158364178591205</v>
+        <v>0.9692843766832295</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.20455813635435</v>
       </c>
       <c r="E35" t="n">
-        <v>2.805461552605439</v>
+        <v>2.792836194596755</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.950380001248316</v>
+        <v>-2.961158519447808</v>
       </c>
       <c r="G35" t="n">
-        <v>0.869804484543591</v>
+        <v>0.9216666496081551</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.102957135162032</v>
       </c>
       <c r="E36" t="n">
-        <v>2.493576174867613</v>
+        <v>2.470583385195565</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.857382955981833</v>
+        <v>-2.860683236763716</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7986706558558185</v>
+        <v>0.8389138320283321</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.002819641028396</v>
       </c>
       <c r="E37" t="n">
-        <v>2.191068937455465</v>
+        <v>2.159749510704452</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.816588411517539</v>
+        <v>-2.807814092661841</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7498629735404087</v>
+        <v>0.7849206041192103</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9065458123427168</v>
       </c>
       <c r="E38" t="n">
-        <v>1.94781183426533</v>
+        <v>1.911211104374356</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.718947430218296</v>
+        <v>-2.711147154683365</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7614191406027542</v>
+        <v>0.7914333371055261</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8147054856830772</v>
       </c>
       <c r="E39" t="n">
-        <v>1.663139287361971</v>
+        <v>1.619323195865068</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.572392030485212</v>
+        <v>-2.552306732679221</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6714845070542228</v>
+        <v>0.6962308186719217</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7296872662124039</v>
       </c>
       <c r="E40" t="n">
-        <v>1.426737082657808</v>
+        <v>1.382103087533385</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.478236745853584</v>
+        <v>-2.457091405911406</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6124264978453851</v>
+        <v>0.6325203345408499</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6515137834230584</v>
       </c>
       <c r="E41" t="n">
-        <v>1.138974677606044</v>
+        <v>1.102444698513573</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.371829374667441</v>
+        <v>-2.348359627026176</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5812223461022776</v>
+        <v>0.5947918613185684</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5797065888131645</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8742642245319728</v>
+        <v>0.8321089470378541</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.250085548064468</v>
+        <v>-2.217886615697584</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5578373774350803</v>
+        <v>0.5653442811244955</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5151146460206668</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7120558205508268</v>
+        <v>0.6748201632353579</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.123717912811068</v>
+        <v>-2.085164216913147</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4804854074478614</v>
+        <v>0.488760811189979</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4566675832020395</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5254298521967491</v>
+        <v>0.4906723025909075</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.04075406267709</v>
+        <v>-2.005356096360663</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4225844177628148</v>
+        <v>0.4250741139653004</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.403363370854981</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4511006490834935</v>
+        <v>0.4170737844483961</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.935595809036927</v>
+        <v>-1.905620647457468</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3778101408827398</v>
+        <v>0.3812690010405781</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3552128915699389</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2340829433277367</v>
+        <v>0.2039906769783411</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.880670622333735</v>
+        <v>-1.846445533478694</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2922150929492709</v>
+        <v>0.2914307349589729</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3107567075740023</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08052992367032243</v>
+        <v>0.0570491974568757</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.784093952615417</v>
+        <v>-1.749018024416313</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2525830572948589</v>
+        <v>0.2598496522376352</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2693986320648712</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02432634322866564</v>
+        <v>0.002297228225879284</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.761551284402809</v>
+        <v>-1.730953393812389</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2202182265038999</v>
+        <v>0.224972558179151</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2306290721702771</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.07479125602898451</v>
+        <v>-0.08647306675074005</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.67528471380424</v>
+        <v>-1.648480529823193</v>
       </c>
       <c r="G49" t="n">
-        <v>0.179121161383939</v>
+        <v>0.1956286645001252</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1935785327149694</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1799055953804216</v>
+        <v>-0.18771197012212</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.648132875037447</v>
+        <v>-1.625109589331561</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1343682317275502</v>
+        <v>0.1433523632960491</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1582531854169109</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2818001634793056</v>
+        <v>-0.2783266652252254</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.645676724472182</v>
+        <v>-1.626489839823042</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08047564073009185</v>
+        <v>0.09200741096536738</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1247448639266019</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3618675003194069</v>
+        <v>-0.3567081813147951</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.618071714642565</v>
+        <v>-1.60271940128814</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03979515143234989</v>
+        <v>0.05050718827807603</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09306606157502696</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4658967907869092</v>
+        <v>-0.4627160544576681</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.562664690604741</v>
+        <v>-1.550408944526166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02242522047924194</v>
+        <v>0.03441687090478551</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.06384092485900726</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.538608484265429</v>
+        <v>-0.5277396978057786</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.585681267183183</v>
+        <v>-1.571887301157849</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.007629840708872107</v>
+        <v>-0.0008139771462125594</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03712367305719445</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5836273393368798</v>
+        <v>-0.5663958603773936</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.537997058754343</v>
+        <v>-1.528171846572609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.05014253171956524</v>
+        <v>-0.04012580444533188</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01265484977479078</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6535590143707819</v>
+        <v>-0.6306381953385899</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.534226529130686</v>
+        <v>-1.526843439338651</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09710520398781221</v>
+        <v>-0.08497510156864684</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.009621032303416547</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7329444598942789</v>
+        <v>-0.7063519183880635</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.598704903393784</v>
+        <v>-1.593389444695925</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1165098303185517</v>
+        <v>-0.1051299303317864</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03025832092202404</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7957906864263987</v>
+        <v>-0.7705832747770782</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.620469922743539</v>
+        <v>-1.609316303327847</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1399856771665844</v>
+        <v>-0.1304843328642032</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04995946079491751</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9438708878513528</v>
+        <v>-0.9101971672880925</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.613021571439091</v>
+        <v>-1.608959499731949</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1512417632559698</v>
+        <v>-0.1355649721015145</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06884958959881574</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.060280348215487</v>
+        <v>-1.027281809841387</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.649804057691737</v>
+        <v>-1.63939210181897</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1857035013335886</v>
+        <v>-0.1644721625759887</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.08721274723115179</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.173895761959439</v>
+        <v>-1.146314539036215</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.69686675695097</v>
+        <v>-1.683272844907609</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1896155325542506</v>
+        <v>-0.1779965436622001</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1049788102885251</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.259223054715815</v>
+        <v>-1.225581050027746</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.645089370860474</v>
+        <v>-1.632483530313445</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.217767031310234</v>
+        <v>-0.2096483771820406</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.122040953873937</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.301672313976126</v>
+        <v>-1.267855871974507</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.736995877956932</v>
+        <v>-1.72841551387644</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2412148218071364</v>
+        <v>-0.2298239432481896</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1383620548453265</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.397649431669201</v>
+        <v>-1.359661742159302</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.808751825734987</v>
+        <v>-1.792318732941364</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2516670324445678</v>
+        <v>-0.2379249096767573</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1536772370317166</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.416870471876239</v>
+        <v>-1.379024283963346</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.885790906415035</v>
+        <v>-1.865982512596288</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2776154977161372</v>
+        <v>-0.2609927195920456</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1679799040654653</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.453205886272828</v>
+        <v>-1.423474692964067</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.958405622505951</v>
+        <v>-1.939430380331643</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3032614423320396</v>
+        <v>-0.2923810673795309</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1810706378237471</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.484411867777966</v>
+        <v>-1.45416773118006</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.057426854296675</v>
+        <v>-2.037367783079785</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3344912107435704</v>
+        <v>-0.3238846901749216</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1924505738461239</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.491813255190303</v>
+        <v>-1.471418117680525</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.177418378795351</v>
+        <v>-2.142010043827419</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3863198301709133</v>
+        <v>-0.3695055369543229</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.201642085533662</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.487573696566228</v>
+        <v>-1.461659386852556</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.30634829081177</v>
+        <v>-2.278348052383619</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3692200940776048</v>
+        <v>-0.3526143937324621</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2078430395190381</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.470770381921819</v>
+        <v>-1.448834584782575</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.424622888605399</v>
+        <v>-2.383771621518168</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4070370057980146</v>
+        <v>-0.3958955847958578</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2101568985961106</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.556934485846693</v>
+        <v>-1.537424953159553</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.531682264994986</v>
+        <v>-2.486485313085925</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4416274371384272</v>
+        <v>-0.429763260134324</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.207484994756086</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.585927065215912</v>
+        <v>-1.558702645888586</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.661384336588168</v>
+        <v>-2.610707857319202</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4397238747062965</v>
+        <v>-0.4283537334503592</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.198987504965294</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.558358040706223</v>
+        <v>-1.531553856725177</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.797392987978924</v>
+        <v>-2.737302992985029</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4944764538579697</v>
+        <v>-0.4745326576489849</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1844869982534162</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.504147681036179</v>
+        <v>-1.471519364512865</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.889641660575037</v>
+        <v>-2.82221309999851</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5359132447948792</v>
+        <v>-0.5120866935577164</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1645934039982717</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.481188437001352</v>
+        <v>-1.453322991042764</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.008240126248021</v>
+        <v>-2.939019618723207</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5429810055970358</v>
+        <v>-0.5232122566222777</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.140048372795693</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.355717995063449</v>
+        <v>-1.330033625444911</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.044471244208885</v>
+        <v>-2.975144610486317</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5141372468729434</v>
+        <v>-0.4933993339428326</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1120943975894545</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.251825326827538</v>
+        <v>-1.214041960744349</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.087804278529805</v>
+        <v>-3.015100209059745</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5305264253778403</v>
+        <v>-0.507930694066355</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.08168423639453522</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.05937400608984</v>
+        <v>-1.022264602354457</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.109390896081611</v>
+        <v>-3.032311255676559</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5225468331639456</v>
+        <v>-0.4976620695526248</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.04981833945528445</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8603361519639388</v>
+        <v>-0.8130136264964104</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.167209241514958</v>
+        <v>-3.0869650276786</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.537922933424764</v>
+        <v>-0.506483352300432</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.01741049881949655</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6787822839576978</v>
+        <v>-0.626745071658907</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.19525217439048</v>
+        <v>-3.127684551899653</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.489755057899263</v>
+        <v>-0.4611796642729397</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.01488033840756899</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3925727369489344</v>
+        <v>-0.3338636023671966</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.238741348404647</v>
+        <v>-3.168777957495553</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4375336495560943</v>
+        <v>-0.407140082392385</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.04666160072341253</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1094743953122628</v>
+        <v>-0.0360064001945755</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.198285919836624</v>
+        <v>-3.132348005394069</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3658606509900765</v>
+        <v>-0.3307963112838306</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.07698671938078819</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1091272744410086</v>
+        <v>0.1839395347302487</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.220809070587577</v>
+        <v>-3.155876305420302</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3130805553070065</v>
+        <v>-0.2757357221903997</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1048045354836629</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4118717709964119</v>
+        <v>0.4920842689575792</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.119244469574814</v>
+        <v>-3.052205648310728</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2546519842365728</v>
+        <v>-0.222325578448249</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1287637140812998</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6320220293479467</v>
+        <v>0.7095496564900691</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.032052039388942</v>
+        <v>-2.968248237394327</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2119441186093203</v>
+        <v>-0.1808619510015625</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1472921445150115</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9451223690738553</v>
+        <v>1.022764661303206</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.981403006550429</v>
+        <v>-2.919169750298441</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2004465039319427</v>
+        <v>-0.1721949781849726</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1586011354092631</v>
       </c>
       <c r="E87" t="n">
-        <v>1.153498718681445</v>
+        <v>1.227805354729661</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.86011235101028</v>
+        <v>-2.812636735452888</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1809845450575889</v>
+        <v>-0.1544322583160389</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1607373833244688</v>
       </c>
       <c r="E88" t="n">
-        <v>1.30897969759806</v>
+        <v>1.38203843594165</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.69747334303135</v>
+        <v>-2.656539736652758</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1357205018740852</v>
+        <v>-0.1172502740201238</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1522977585306744</v>
       </c>
       <c r="E89" t="n">
-        <v>1.412954095204655</v>
+        <v>1.466566732611486</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.455581242315777</v>
+        <v>-2.416617679723081</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1372526226140764</v>
+        <v>-0.1122928387595156</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1327836407478467</v>
       </c>
       <c r="E90" t="n">
-        <v>1.487648640803283</v>
+        <v>1.533089560983043</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.191035467824428</v>
+        <v>-2.158882279508301</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1237733756579443</v>
+        <v>-0.1007494800313819</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1031673520497836</v>
       </c>
       <c r="E91" t="n">
-        <v>1.514877939496023</v>
+        <v>1.553123625452187</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.821543692088424</v>
+        <v>-1.791114749525464</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1030318032037731</v>
+        <v>-0.08734403347713629</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06511661832596211</v>
       </c>
       <c r="E92" t="n">
-        <v>1.531152452913692</v>
+        <v>1.567414676829071</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.515248237352994</v>
+        <v>-1.493616790631447</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08045741911597397</v>
+        <v>-0.0633741508809376</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02141272984890891</v>
       </c>
       <c r="E93" t="n">
-        <v>1.518059285745941</v>
+        <v>1.560113926328397</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.173961633392527</v>
+        <v>-1.149171407486103</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05219186519343871</v>
+        <v>-0.03541660690016013</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02443922543338482</v>
       </c>
       <c r="E94" t="n">
-        <v>1.51447905137343</v>
+        <v>1.550456442332768</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.85867228835777</v>
+        <v>-0.8328470270629038</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07192706853097562</v>
+        <v>-0.05792024018945648</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06913726501616958</v>
       </c>
       <c r="E95" t="n">
-        <v>1.44303538298187</v>
+        <v>1.477842946083205</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.629579982964432</v>
+        <v>-0.6053081896332431</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1380680865588885</v>
+        <v>-0.1280379410297667</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.109935339706661</v>
       </c>
       <c r="E96" t="n">
-        <v>1.347534613337335</v>
+        <v>1.394483257430017</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3663504172935051</v>
+        <v>-0.3430416887109013</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1970333878248605</v>
+        <v>-0.1872337923115495</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1433121170386977</v>
       </c>
       <c r="E97" t="n">
-        <v>1.249173315718853</v>
+        <v>1.287984398142362</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1814669923128966</v>
+        <v>-0.1606790658872925</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2227750899870123</v>
+        <v>-0.2155438704434873</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1672857723498335</v>
       </c>
       <c r="E98" t="n">
-        <v>1.159139265100011</v>
+        <v>1.194615911183739</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06113757175930248</v>
+        <v>-0.0476266089279795</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.275940655537787</v>
+        <v>-0.2775124211217668</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1822610614969094</v>
       </c>
       <c r="E99" t="n">
-        <v>1.083796983742678</v>
+        <v>1.11763538288866</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1668831030049892</v>
+        <v>0.1757751365512992</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3200873240414882</v>
+        <v>-0.3161698035347354</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1923025494086698</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9114455989072112</v>
+        <v>0.9455816393434465</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2202499423790908</v>
+        <v>0.2295542823028824</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3038189098305872</v>
+        <v>-0.3060426806180107</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2018916463838462</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7797240799533168</v>
+        <v>0.8197482946028779</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2620063317506163</v>
+        <v>0.2759875434237121</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3523307806177743</v>
+        <v>-0.3596315311184485</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2203714837753342</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6588530498387705</v>
+        <v>0.6933733403013571</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2616300106930628</v>
+        <v>0.2740376270201486</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3314251395015578</v>
+        <v>-0.3365320053279693</v>
       </c>
     </row>
   </sheetData>
